--- a/WaterLeakAlarmPartsList.xlsx
+++ b/WaterLeakAlarmPartsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Item #</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>The Particle Electron may also be used.</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B00UJ0DVN4/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>Solu water level sensor</t>
+  </si>
+  <si>
+    <t>Order 1 or 2 sensors, as needed for your project.</t>
   </si>
 </sst>
 </file>
@@ -496,7 +511,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,7 +568,7 @@
     </row>
     <row r="4" spans="1:7" ht="45">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A28" si="0">A3+1</f>
+        <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -753,12 +768,29 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="51.75" customHeight="1">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
